--- a/medicine/Psychotrope/Martini_(cocktail)/Martini_(cocktail).xlsx
+++ b/medicine/Psychotrope/Martini_(cocktail)/Martini_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Dry martini ou Martini gin est un apéritif et un cocktail dry officiel de l'IBA, à base de gin et de vermouth blanc. Il peut être garni d’une écorce de citron jaune ou d’une olive verte selon la demande.
-Il est célèbre en littérature et au cinéma, en particulier aux États-Unis d’où il est originaire, en particulier en tant que cocktail préféré de l'agent secret britannique James Bond 007[1], de Ian Fleming, avec ses variantes Vodka martini, et Vesper[2],[3],[4].
+Il est célèbre en littérature et au cinéma, en particulier aux États-Unis d’où il est originaire, en particulier en tant que cocktail préféré de l'agent secret britannique James Bond 007, de Ian Fleming, avec ses variantes Vodka martini, et Vesper.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cocktail dry martini fait son apparition aux États-Unis, au début du XXe siècle, où il devient très populaire, et couramment associé à des personnalités telles que Cary Grant, Ernest Hemingway, Robert Oppenheimer, Franklin Delano Roosevelt, Winston Churchill[5], Queen Mum, et la reine Élisabeth II du Royaume-Uni[6],[7]... 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cocktail dry martini fait son apparition aux États-Unis, au début du XXe siècle, où il devient très populaire, et couramment associé à des personnalités telles que Cary Grant, Ernest Hemingway, Robert Oppenheimer, Franklin Delano Roosevelt, Winston Churchill, Queen Mum, et la reine Élisabeth II du Royaume-Uni,... 
 Le cocktail Dry martini (aux États-Unis) est souvent confondu avec la marque de vermouth apéritif Martini (en Italie et dans la plupart des pays d'Europe). 
 Le dry martini (dry = alcool sec en anglais) peut également désigner une variante plus alcoolisée du cocktail, avec une dose de vermouth réduite, avec par exemple le Montgomery Martini du field marshal britannique Bernard Montgomery ou de l’écrivain américain Ernest Hemingway (avec 10 à 15 mesures de gin pour 1 de vermouth), ou le célèbre Dry martini sans martini de Winston Churchill (qui affirmait qu'un regard vers la bouteille de vermouth était suffisant, ou que « le martini le plus sec est une bouteille de bon gin qui se trouvait autrefois à côté d'une bouteille de vermouth », ou encore celle du cinéaste espagnol Luis Buñuel, qui se contentait de mouiller les glaçons de vermouth sans le mélanger au gin...
 </t>
@@ -546,16 +560,14 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le cocktail « martini dry classique » se prépare avec 1 mesure de gin et 1/2 mesure de vermouth blanc sec traditionnellement remué à la cuillère (ou au shaker) avec des glaçons dans un verre à mélange (pour mélanger les ingrédients sans rendre le liquide « trouble ») et servi « straight up » (filtré sans glace) dans un verre à cocktail glacé (également appelé verre à martini)[8], avec quelques variantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cocktail « martini dry classique » se prépare avec 1 mesure de gin et 1/2 mesure de vermouth blanc sec traditionnellement remué à la cuillère (ou au shaker) avec des glaçons dans un verre à mélange (pour mélanger les ingrédients sans rendre le liquide « trouble ») et servi « straight up » (filtré sans glace) dans un verre à cocktail glacé (également appelé verre à martini), avec quelques variantes :
 « Dry Classic » accompagné d’un zeste de citron, ou d’une olive verte
 Gibson (cocktail) (en) accompagné d’un oignon grelot au vinaigre
-IBA
-La recette de l'International Bartenders Association (IBA) est composée de[9] :
-6 cl de gin
-1 cl de vermouth blanc sec
-1 squeeze de citron jaune issu d'une écorce  ou une olive verte, si demandée.</t>
+</t>
         </is>
       </c>
     </row>
@@ -580,16 +592,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cinéma, télévision, littérature</t>
+          <t>Préparation</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ce cocktail est lié à quelques personnages de films, séries de télévision, ou romans, dont :
-Séries télévisées : Rachel Green de Friends, Serena Van Der Woodsen dans Gossip Girl, Emily Nelson dans L'Ombre d'Emily, ou encore Grace Hanson dans Grace &amp; Frankie...
-James Bond 007 (des romans de Ian Fleming et série de films, avec ses variantes Vodka martini, et Vesper[2],[3],[4]) préparés à l'origine avec du Gin Gordon’s, au shaker, pas à la cuillère (shaken, not stirred (en))[10],[11].
-Les Griffin (série d'animation) le chien Brian Griffin de la famille est amateur de cocktail martini.
-Shining, l'enfant lumière (roman de Stephen King) cocktail commandé par Jack Torrance lors de ses hallucinations au bar de l'hôtel Overlook (du bourbon Jack Daniel's dans l'adaptation Shining (film) au cinéma).</t>
+          <t>IBA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La recette de l'International Bartenders Association (IBA) est composée de :
+6 cl de gin
+1 cl de vermouth blanc sec
+1 squeeze de citron jaune issu d'une écorce  ou une olive verte, si demandée.</t>
         </is>
       </c>
     </row>
@@ -614,10 +631,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Cinéma, télévision, littérature</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ce cocktail est lié à quelques personnages de films, séries de télévision, ou romans, dont :
+Séries télévisées : Rachel Green de Friends, Serena Van Der Woodsen dans Gossip Girl, Emily Nelson dans L'Ombre d'Emily, ou encore Grace Hanson dans Grace &amp; Frankie...
+James Bond 007 (des romans de Ian Fleming et série de films, avec ses variantes Vodka martini, et Vesper) préparés à l'origine avec du Gin Gordon’s, au shaker, pas à la cuillère (shaken, not stirred (en)),.
+Les Griffin (série d'animation) le chien Brian Griffin de la famille est amateur de cocktail martini.
+Shining, l'enfant lumière (roman de Stephen King) cocktail commandé par Jack Torrance lors de ses hallucinations au bar de l'hôtel Overlook (du bourbon Jack Daniel's dans l'adaptation Shining (film) au cinéma).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Martini_(cocktail)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martini_(cocktail)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tequini (tequila, vermouth).
 Vodka martini (vodka, vermouth).
